--- a/data/case1/15/Q_device_3.xlsx
+++ b/data/case1/15/Q_device_3.xlsx
@@ -56,48 +56,48 @@
   <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.012784844479513138</v>
+        <v>0.019719031323889441</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.013023676789414103</v>
+        <v>-0.019719031381164393</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.074308789810865875</v>
+        <v>-0.00079887094455772579</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.075759641452384341</v>
+        <v>0.00079887083129568336</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.00092993757787441676</v>
+        <v>-0.035171490645430063</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.00092993758637600118</v>
+        <v>0.035171490585610032</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0041482026773823665</v>
+        <v>-0.04070507555833966</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.0041482026963715465</v>
+        <v>0.040705075470485512</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.027000328505050103</v>
+        <v>0.034173019087727019</v>
       </c>
       <c r="B5" s="0">
-        <v>0.027000328436274496</v>
+        <v>-0.034173019229503283</v>
       </c>
     </row>
   </sheetData>
